--- a/cis_controls/CIS_Controls.xlsx
+++ b/cis_controls/CIS_Controls.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yelena Gevorgyan\YSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E.Gevorgyan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="3630" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="29" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Controls v8.1.2" sheetId="33" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Controls v8.1.2'!$A$1:$I$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Controls v8.1.2'!$A$1:$S$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="575">
   <si>
     <t>CIS Control</t>
   </si>
@@ -1076,12 +1076,837 @@
 Make the process accessible to all employees.
 Review annually or when major organizational changes occur.</t>
   </si>
+  <si>
+    <t>CIS Function (NIST)</t>
+  </si>
+  <si>
+    <t>Control Owner</t>
+  </si>
+  <si>
+    <t>Implementation Evidence</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Risk if Not Implemented</t>
+  </si>
+  <si>
+    <t>Improvement Actions</t>
+  </si>
+  <si>
+    <t>Date Last Verified</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Tools Used</t>
+  </si>
+  <si>
+    <t>Responsible Department</t>
+  </si>
+  <si>
+    <t>Nerses (Lead Architect)</t>
+  </si>
+  <si>
+    <t>Asset inventory list in SharePoint; Intune device report</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Untracked devices increase attack surface and may introduce unmanaged access points</t>
+  </si>
+  <si>
+    <t>Automate discovery and sync Intune/Defender data weekly</t>
+  </si>
+  <si>
+    <t>CIS 2.1</t>
+  </si>
+  <si>
+    <t>Microsoft Intune, Defender</t>
+  </si>
+  <si>
+    <t>IT &amp; Security</t>
+  </si>
+  <si>
+    <t>Weekly unauthorized device report; quarantine logs</t>
+  </si>
+  <si>
+    <t>Unauthorized or rogue devices can access corporate resources</t>
+  </si>
+  <si>
+    <t>Configure automatic device quarantine and email alerts</t>
+  </si>
+  <si>
+    <t>CIS 1.1</t>
+  </si>
+  <si>
+    <t>Intune, Conditional Access</t>
+  </si>
+  <si>
+    <t>Software inventory file; Intune application list</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Unknown or outdated software may introduce vulnerabilities</t>
+  </si>
+  <si>
+    <t>Link Intune app inventory to monthly compliance review</t>
+  </si>
+  <si>
+    <t>Intune, Defender, M365</t>
+  </si>
+  <si>
+    <t>Garegin (Identity &amp; SaaS Engineer)</t>
+  </si>
+  <si>
+    <t>Authorized software list; vendor lifecycle tracking sheet</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Unsupported software may expose systems to unpatched exploits</t>
+  </si>
+  <si>
+    <t>Conduct monthly software lifecycle audit and remove unsupported apps</t>
+  </si>
+  <si>
+    <t>Intune, Microsoft 365 Admin Center</t>
+  </si>
+  <si>
+    <t>Report on unauthorized software removals; exception log</t>
+  </si>
+  <si>
+    <t>Unauthorized or malicious software may compromise systems</t>
+  </si>
+  <si>
+    <t>Automate removal of unapproved software and document exceptions</t>
+  </si>
+  <si>
+    <t>CIS 2.2</t>
+  </si>
+  <si>
+    <t>Intune, Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>Yelena (IR Lead &amp; Documentation Officer)</t>
+  </si>
+  <si>
+    <t>Data management policy document; data flow diagram</t>
+  </si>
+  <si>
+    <t>Undefined data classification may cause data exposure</t>
+  </si>
+  <si>
+    <t>Finalize data classification policy and review annually</t>
+  </si>
+  <si>
+    <t>CIS 3.2</t>
+  </si>
+  <si>
+    <t>SharePoint, Word Templates</t>
+  </si>
+  <si>
+    <t>Compliance / IR</t>
+  </si>
+  <si>
+    <t>Data inventory spreadsheet; sensitive data list</t>
+  </si>
+  <si>
+    <t>Sensitive data may not be properly tracked or protected</t>
+  </si>
+  <si>
+    <t>Develop full data inventory prioritizing customer and PII data</t>
+  </si>
+  <si>
+    <t>CIS 3.1</t>
+  </si>
+  <si>
+    <t>SharePoint, Excel</t>
+  </si>
+  <si>
+    <t>Access Control Lists (ACL) and permissions report</t>
+  </si>
+  <si>
+    <t>Unauthorized data access could lead to information leakage</t>
+  </si>
+  <si>
+    <t>Quarterly review of user/group permissions</t>
+  </si>
+  <si>
+    <t>CIS 4.1</t>
+  </si>
+  <si>
+    <t>Azure AD, SharePoint Permissions</t>
+  </si>
+  <si>
+    <t>Data retention schedule and approved disposal policy</t>
+  </si>
+  <si>
+    <t>Retaining data longer than required increases risk of data breach</t>
+  </si>
+  <si>
+    <t>Align retention with business/legal needs; automate review</t>
+  </si>
+  <si>
+    <t>CIS 3.1, CIS 3.5</t>
+  </si>
+  <si>
+    <t>SharePoint, M365 Retention Policies</t>
+  </si>
+  <si>
+    <t>Harut (Network &amp; Data Protection Engineer)</t>
+  </si>
+  <si>
+    <t>Secure data disposal records; wiped device certificates</t>
+  </si>
+  <si>
+    <t>Sensitive data may remain recoverable if not properly destroyed</t>
+  </si>
+  <si>
+    <t>Validate disposal method aligns with data sensitivity level</t>
+  </si>
+  <si>
+    <t>CIS 3.4</t>
+  </si>
+  <si>
+    <t>BitLocker, Veeam, Intune</t>
+  </si>
+  <si>
+    <t>BitLocker encryption status report; Intune compliance logs</t>
+  </si>
+  <si>
+    <t>Sensitive data on laptops or mobiles can be stolen or leaked</t>
+  </si>
+  <si>
+    <t>Expand encryption policy to mobile devices via Intune MDM</t>
+  </si>
+  <si>
+    <t>BitLocker, FileVault, Intune</t>
+  </si>
+  <si>
+    <t>Secure configuration baseline document in SharePoint</t>
+  </si>
+  <si>
+    <t>Systems may not follow consistent secure configuration, increasing attack surface</t>
+  </si>
+  <si>
+    <t>Complete and approve configuration documentation by department</t>
+  </si>
+  <si>
+    <t>CIS 4.2</t>
+  </si>
+  <si>
+    <t>SharePoint, Word templates</t>
+  </si>
+  <si>
+    <t>Documentation / IR</t>
+  </si>
+  <si>
+    <t>Network configuration baseline and version control logs</t>
+  </si>
+  <si>
+    <t>Misconfigured network devices can allow unauthorized access</t>
+  </si>
+  <si>
+    <t>Annual review of network configuration baseline</t>
+  </si>
+  <si>
+    <t>FortiGate, Git version control</t>
+  </si>
+  <si>
+    <t>Endpoint lock policy from Intune; device compliance report</t>
+  </si>
+  <si>
+    <t>Unlocked devices allow unauthorized access</t>
+  </si>
+  <si>
+    <t>Enforce lock timers across all OS platforms</t>
+  </si>
+  <si>
+    <t>Intune, Group Policy</t>
+  </si>
+  <si>
+    <t>Firewall configuration and monitoring report</t>
+  </si>
+  <si>
+    <t>Servers may be exposed to inbound threats</t>
+  </si>
+  <si>
+    <t>Automate firewall rule review quarterly</t>
+  </si>
+  <si>
+    <t>CIS 13</t>
+  </si>
+  <si>
+    <t>Windows Firewall, FortiGate</t>
+  </si>
+  <si>
+    <t>Endpoint firewall logs; Intune policy enforcement</t>
+  </si>
+  <si>
+    <t>Endpoint malware or lateral movement through open ports</t>
+  </si>
+  <si>
+    <t>Enable strict default-deny rules and validate policy via Intune</t>
+  </si>
+  <si>
+    <t>CIS 4.4</t>
+  </si>
+  <si>
+    <t>Windows Defender Firewall</t>
+  </si>
+  <si>
+    <t>Admin access configuration standards; SSH/HTTPS policy</t>
+  </si>
+  <si>
+    <t>Admin interfaces may be accessed via insecure protocols</t>
+  </si>
+  <si>
+    <t>Block HTTP/Telnet, enforce SSH/HTTPS for all admin consoles</t>
+  </si>
+  <si>
+    <t>FortiGate, Azure AD, Intune</t>
+  </si>
+  <si>
+    <t>Default account status reports; AD group policy logs</t>
+  </si>
+  <si>
+    <t>Default or vendor accounts may be exploited</t>
+  </si>
+  <si>
+    <t>Verify all new systems have disabled or renamed default accounts</t>
+  </si>
+  <si>
+    <t>CIS 6.5</t>
+  </si>
+  <si>
+    <t>Azure AD, Intune</t>
+  </si>
+  <si>
+    <t>Account inventory list in Azure AD; access review log</t>
+  </si>
+  <si>
+    <t>Orphaned or unauthorized accounts increase risk of compromise</t>
+  </si>
+  <si>
+    <t>Automate account reconciliation quarterly</t>
+  </si>
+  <si>
+    <t>CIS 6.2</t>
+  </si>
+  <si>
+    <t>Azure AD, Okta, PowerShell</t>
+  </si>
+  <si>
+    <t>Password policy configuration; MFA report</t>
+  </si>
+  <si>
+    <t>Weak passwords enable brute-force attacks</t>
+  </si>
+  <si>
+    <t>Enforce password complexity and length standards</t>
+  </si>
+  <si>
+    <t>CIS 6.3</t>
+  </si>
+  <si>
+    <t>Azure AD, Okta</t>
+  </si>
+  <si>
+    <t>Disabled account report; access audit logs</t>
+  </si>
+  <si>
+    <t>Dormant accounts can be exploited by attackers</t>
+  </si>
+  <si>
+    <t>Automate account disabling after 45 days of inactivity</t>
+  </si>
+  <si>
+    <t>CIS 5.1</t>
+  </si>
+  <si>
+    <t>Azure AD, PowerShell scripts</t>
+  </si>
+  <si>
+    <t>List of admin and user accounts; admin use report</t>
+  </si>
+  <si>
+    <t>Admin rights abuse or misconfiguration</t>
+  </si>
+  <si>
+    <t>Restrict admin roles and review usage monthly</t>
+  </si>
+  <si>
+    <t>Azure AD, Okta, Intune</t>
+  </si>
+  <si>
+    <t>Access request workflow; HR onboarding policy</t>
+  </si>
+  <si>
+    <t>Uncontrolled account creation may lead to unauthorized access</t>
+  </si>
+  <si>
+    <t>Review access granting process with HR quarterly</t>
+  </si>
+  <si>
+    <t>SharePoint, HR System</t>
+  </si>
+  <si>
+    <t>IR / HR</t>
+  </si>
+  <si>
+    <t>Access revocation records; offboarding checklist</t>
+  </si>
+  <si>
+    <t>Departed employees retain access rights</t>
+  </si>
+  <si>
+    <t>Automate revocation through HR system triggers</t>
+  </si>
+  <si>
+    <t>CIS 6.1</t>
+  </si>
+  <si>
+    <t>SharePoint, Azure AD</t>
+  </si>
+  <si>
+    <t>MFA enforcement report for SaaS</t>
+  </si>
+  <si>
+    <t>External attackers may compromise cloud accounts</t>
+  </si>
+  <si>
+    <t>Enforce MFA via central SSO provider</t>
+  </si>
+  <si>
+    <t>CIS 6.4</t>
+  </si>
+  <si>
+    <t>VPN MFA logs; authentication reports</t>
+  </si>
+  <si>
+    <t>Remote users may connect without sufficient authentication</t>
+  </si>
+  <si>
+    <t>Review VPN MFA logs monthly</t>
+  </si>
+  <si>
+    <t>VPN, Azure AD MFA</t>
+  </si>
+  <si>
+    <t>Admin MFA configuration reports</t>
+  </si>
+  <si>
+    <t>Compromise of admin accounts may lead to total system breach</t>
+  </si>
+  <si>
+    <t>Validate MFA enforcement for all privileged accounts</t>
+  </si>
+  <si>
+    <t>Vulnerability management policy document</t>
+  </si>
+  <si>
+    <t>No structured vulnerability process delays remediation</t>
+  </si>
+  <si>
+    <t>Finalize vulnerability management policy</t>
+  </si>
+  <si>
+    <t>CIS 7.3</t>
+  </si>
+  <si>
+    <t>SharePoint, Word</t>
+  </si>
+  <si>
+    <t>IR / Compliance</t>
+  </si>
+  <si>
+    <t>Karine (Security Operations Lead)</t>
+  </si>
+  <si>
+    <t>Remediation process flow; risk-based ticket reports</t>
+  </si>
+  <si>
+    <t>Delayed remediation increases exposure time</t>
+  </si>
+  <si>
+    <t>Automate remediation workflows in ticketing system</t>
+  </si>
+  <si>
+    <t>CIS 7.1</t>
+  </si>
+  <si>
+    <t>Sentinel, Jira</t>
+  </si>
+  <si>
+    <t>Security Operations</t>
+  </si>
+  <si>
+    <t>OS patch reports; Intune update compliance logs</t>
+  </si>
+  <si>
+    <t>Unpatched systems may be exploited</t>
+  </si>
+  <si>
+    <t>Verify patch automation monthly</t>
+  </si>
+  <si>
+    <t>Intune, Defender</t>
+  </si>
+  <si>
+    <t>Application patch compliance reports</t>
+  </si>
+  <si>
+    <t>Outdated applications create security gaps</t>
+  </si>
+  <si>
+    <t>Integrate patch management for all apps</t>
+  </si>
+  <si>
+    <t>Audit log management policy; retention matrix</t>
+  </si>
+  <si>
+    <t>Logs may not be consistent or complete for investigations</t>
+  </si>
+  <si>
+    <t>Align audit log policy with SIEM data sources</t>
+  </si>
+  <si>
+    <t>CIS 8.2</t>
+  </si>
+  <si>
+    <t>Microsoft Sentinel, SharePoint</t>
+  </si>
+  <si>
+    <t>SIEM log collection report; endpoint log policy</t>
+  </si>
+  <si>
+    <t>Missing or inconsistent audit logs reduce incident detection capabilities</t>
+  </si>
+  <si>
+    <t>Validate log collection across all SaaS and endpoint sources</t>
+  </si>
+  <si>
+    <t>CIS 8.1</t>
+  </si>
+  <si>
+    <t>Microsoft Sentinel, Defender</t>
+  </si>
+  <si>
+    <t>Storage monitoring dashboard; retention alerts</t>
+  </si>
+  <si>
+    <t>Log data could be lost or overwritten due to storage limits</t>
+  </si>
+  <si>
+    <t>Increase log storage allocation and automate retention monitoring</t>
+  </si>
+  <si>
+    <t>Microsoft Sentinel, Azure Storage</t>
+  </si>
+  <si>
+    <t>Browser and email client inventory; Intune compliance report</t>
+  </si>
+  <si>
+    <t>Outdated browsers or email clients expose users to vulnerabilities</t>
+  </si>
+  <si>
+    <t>Force updates via Intune and block unsupported versions</t>
+  </si>
+  <si>
+    <t>Intune, M365 Admin Center</t>
+  </si>
+  <si>
+    <t>DNS filter configuration logs; policy verification</t>
+  </si>
+  <si>
+    <t>Users may access malicious domains or phishing sites</t>
+  </si>
+  <si>
+    <t>Periodically update DNS filter threat feeds</t>
+  </si>
+  <si>
+    <t>Cisco Umbrella, Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>Anti-malware deployment logs; compliance reports</t>
+  </si>
+  <si>
+    <t>Malware infections could remain undetected</t>
+  </si>
+  <si>
+    <t>Ensure all devices are connected to EDR console</t>
+  </si>
+  <si>
+    <t>CIS 10.2</t>
+  </si>
+  <si>
+    <t>Microsoft Defender, Intune</t>
+  </si>
+  <si>
+    <t>Signature update logs; Defender policy report</t>
+  </si>
+  <si>
+    <t>Malware signatures may become outdated, reducing protection</t>
+  </si>
+  <si>
+    <t>Enable auto-updates and verify daily sync</t>
+  </si>
+  <si>
+    <t>CIS 10.1</t>
+  </si>
+  <si>
+    <t>Endpoint configuration policy; registry verification</t>
+  </si>
+  <si>
+    <t>Malware could auto-run from removable media</t>
+  </si>
+  <si>
+    <t>Confirm autorun disabled on all managed devices</t>
+  </si>
+  <si>
+    <t>Data recovery policy document; recovery process flow</t>
+  </si>
+  <si>
+    <t>Lack of recovery plan may delay data restoration</t>
+  </si>
+  <si>
+    <t>Complete and approve recovery documentation</t>
+  </si>
+  <si>
+    <t>CIS 11.2</t>
+  </si>
+  <si>
+    <t>Automated backup reports; backup job logs</t>
+  </si>
+  <si>
+    <t>Loss of business-critical data if backups fail</t>
+  </si>
+  <si>
+    <t>Review backup logs weekly and test restores</t>
+  </si>
+  <si>
+    <t>CIS 11.1</t>
+  </si>
+  <si>
+    <t>Veeam, OneDrive, Azure Backup</t>
+  </si>
+  <si>
+    <t>Backup encryption configuration; access control logs</t>
+  </si>
+  <si>
+    <t>Backup data can be stolen or altered</t>
+  </si>
+  <si>
+    <t>Apply same encryption controls as production data</t>
+  </si>
+  <si>
+    <t>BitLocker, Azure Backup</t>
+  </si>
+  <si>
+    <t>Offline/off-site backup logs; isolation report</t>
+  </si>
+  <si>
+    <t>Ransomware could encrypt both live and backup data</t>
+  </si>
+  <si>
+    <t>Maintain immutable, air-gapped backup copies</t>
+  </si>
+  <si>
+    <t>CIS 11.3</t>
+  </si>
+  <si>
+    <t>Azure Backup, Veeam</t>
+  </si>
+  <si>
+    <t>Firmware and software version audit logs</t>
+  </si>
+  <si>
+    <t>Outdated network devices may contain exploitable vulnerabilities</t>
+  </si>
+  <si>
+    <t>Schedule monthly firmware reviews and patch network devices</t>
+  </si>
+  <si>
+    <t>FortiGate, Network Management Console</t>
+  </si>
+  <si>
+    <t>Security awareness program outline; training materials</t>
+  </si>
+  <si>
+    <t>Employees unaware of policies increase risk of human error</t>
+  </si>
+  <si>
+    <t>Update training annually and after major incidents</t>
+  </si>
+  <si>
+    <t>CIS 14.2</t>
+  </si>
+  <si>
+    <t>SharePoint, PowerPoint</t>
+  </si>
+  <si>
+    <t>HR / IR</t>
+  </si>
+  <si>
+    <t>Phishing test results; awareness training attendance logs</t>
+  </si>
+  <si>
+    <t>Users may fall for phishing or social engineering</t>
+  </si>
+  <si>
+    <t>Conduct quarterly phishing simulations</t>
+  </si>
+  <si>
+    <t>CIS 14.1</t>
+  </si>
+  <si>
+    <t>KnowBe4, M365</t>
+  </si>
+  <si>
+    <t>MFA awareness materials; staff quiz results</t>
+  </si>
+  <si>
+    <t>Employees may mishandle passwords or ignore MFA</t>
+  </si>
+  <si>
+    <t>Reinforce MFA and password policy during onboarding</t>
+  </si>
+  <si>
+    <t>HR / IT Security</t>
+  </si>
+  <si>
+    <t>Data handling guide; employee acknowledgment forms</t>
+  </si>
+  <si>
+    <t>Improper data storage or disposal may lead to exposure</t>
+  </si>
+  <si>
+    <t>Include examples and visual training materials</t>
+  </si>
+  <si>
+    <t>SharePoint</t>
+  </si>
+  <si>
+    <t>Unintentional exposure awareness slides; case studies</t>
+  </si>
+  <si>
+    <t>Sensitive data could be leaked by mistake</t>
+  </si>
+  <si>
+    <t>Emphasize double-checking recipients and sharing limits</t>
+  </si>
+  <si>
+    <t>CIS 14.4</t>
+  </si>
+  <si>
+    <t>Incident reporting guide; email templates</t>
+  </si>
+  <si>
+    <t>Employees might not report incidents in time</t>
+  </si>
+  <si>
+    <t>Include reporting scenarios in awareness sessions</t>
+  </si>
+  <si>
+    <t>CIS 17.3</t>
+  </si>
+  <si>
+    <t>SharePoint, MS Teams</t>
+  </si>
+  <si>
+    <t>IR / Security</t>
+  </si>
+  <si>
+    <t>Patch status awareness materials</t>
+  </si>
+  <si>
+    <t>Outdated software may remain unnoticed by users</t>
+  </si>
+  <si>
+    <t>Encourage reporting failed patch notifications</t>
+  </si>
+  <si>
+    <t>SharePoint, Intune</t>
+  </si>
+  <si>
+    <t>Secure remote access training slides</t>
+  </si>
+  <si>
+    <t>Employees may use unsafe public networks for work</t>
+  </si>
+  <si>
+    <t>Include VPN setup instructions in training</t>
+  </si>
+  <si>
+    <t>Anahit (Project Manager)</t>
+  </si>
+  <si>
+    <t>Service provider inventory list; vendor review logs</t>
+  </si>
+  <si>
+    <t>Untracked vendors may cause supply-chain risks</t>
+  </si>
+  <si>
+    <t>Conduct annual vendor review and update contacts</t>
+  </si>
+  <si>
+    <t>CIS 17.2</t>
+  </si>
+  <si>
+    <t>Excel, SharePoint</t>
+  </si>
+  <si>
+    <t>Management / Procurement</t>
+  </si>
+  <si>
+    <t>Incident response assignment list; contact info</t>
+  </si>
+  <si>
+    <t>Lack of clear ownership delays response coordination</t>
+  </si>
+  <si>
+    <t>Assign backup IR personnel and review annually</t>
+  </si>
+  <si>
+    <t>Incident contact list; annual review confirmation</t>
+  </si>
+  <si>
+    <t>Missing or outdated contact info hinders response</t>
+  </si>
+  <si>
+    <t>Validate and update contact list annually</t>
+  </si>
+  <si>
+    <t>CIS 17.1</t>
+  </si>
+  <si>
+    <t>Incident reporting policy; procedure flowchart</t>
+  </si>
+  <si>
+    <t>Employees may not know how to report incidents</t>
+  </si>
+  <si>
+    <t>Reiterate reporting process during quarterly training</t>
+  </si>
+  <si>
+    <t>CIS 14.6</t>
+  </si>
+  <si>
+    <t>Nerses(Lead Architect)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,8 +2066,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,8 +2107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1408,12 +2254,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,9 +2325,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1543,6 +2412,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1551,7 +2472,63 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9966FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1853,14 +2830,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF66FF33"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FF9966FF"/>
       <color rgb="FF0078AC"/>
       <color rgb="FFF9F49C"/>
       <color rgb="FF00A3AD"/>
       <color rgb="FFDB8A06"/>
       <color rgb="FF74AA50"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF0086BF"/>
-      <color rgb="FF003B5C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1894,7 +2873,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874E8E6E-6C53-4206-B17B-7AD19FA1EED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{874E8E6E-6C53-4206-B17B-7AD19FA1EED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +2927,7 @@
         <xdr:cNvPr id="2" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116C82FA-1B79-4300-8BD3-9387CC8B8CF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{116C82FA-1B79-4300-8BD3-9387CC8B8CF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2981,7 @@
         <xdr:cNvPr id="2" name="Graphic 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965A4F76-D5F2-4962-BDE3-DFDAE7AD8A70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{965A4F76-D5F2-4962-BDE3-DFDAE7AD8A70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +3030,7 @@
         <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1EC670-FD26-49AB-9FDF-C3F5F0B30F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B1EC670-FD26-49AB-9FDF-C3F5F0B30F0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +3045,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2104,7 +3083,7 @@
         <xdr:cNvPr id="4" name="Graphic 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52CC274-7DDD-4E2F-99EC-107C33B97B19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52CC274-7DDD-4E2F-99EC-107C33B97B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,6 +3414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A63:A81"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0"/>
@@ -2446,12 +3426,12 @@
   </cols>
   <sheetData>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2461,7 +3441,7 @@
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2471,12 +3451,12 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2499,7 +3479,7 @@
       <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2532,6 +3512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B9:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
@@ -2545,84 +3526,84 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2638,6 +3619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2647,90 +3629,90 @@
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="58.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="93.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" style="17" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="2:4" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="33"/>
+      <c r="D7" s="35" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="33"/>
+      <c r="D10" s="34" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="33"/>
+      <c r="D11" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="2:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="33"/>
+      <c r="D16" s="34" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="D17" s="36" t="s">
+      <c r="B17" s="33"/>
+      <c r="D17" s="35" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2745,6 +3727,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
@@ -2756,102 +3739,102 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="46"/>
     </row>
     <row r="20" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="2:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,27 +3843,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I172"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="126.28515625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" style="63" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="63" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="64" customWidth="1"/>
+    <col min="7" max="9" width="9.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="21" style="63" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="63" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="63" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="63" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="63" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2905,11 +3898,41 @@
       <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2919,11 +3942,15 @@
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2933,7 +3960,7 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2942,17 +3969,41 @@
       <c r="F3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2962,7 +4013,7 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2971,17 +4022,41 @@
       <c r="F4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2991,21 +4066,52 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="P5" s="54">
+        <v>45930</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3015,21 +4121,52 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="P6" s="54">
+        <v>45940</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3039,19 +4176,50 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7" s="54">
+        <v>45935</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3061,11 +4229,42 @@
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="P8" s="54">
+        <v>45942</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="R8" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -3075,7 +4274,7 @@
       <c r="C9" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3084,17 +4283,41 @@
       <c r="F9" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="G9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="S9" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -3104,7 +4327,7 @@
       <c r="C10" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3113,17 +4336,41 @@
       <c r="F10" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="S10" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -3133,7 +4380,7 @@
       <c r="C11" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3142,17 +4389,41 @@
       <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="S11" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -3162,21 +4433,52 @@
       <c r="C12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="P12" s="54">
+        <v>45930</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -3186,21 +4488,25 @@
       <c r="C13" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -3210,21 +4516,25 @@
       <c r="C14" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -3234,19 +4544,23 @@
       <c r="C15" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -3256,11 +4570,15 @@
       <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -3270,7 +4588,7 @@
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3279,17 +4597,41 @@
       <c r="F17" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="O17" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="R17" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3299,7 +4641,7 @@
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3308,17 +4650,41 @@
       <c r="F18" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -3328,7 +4694,7 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3337,17 +4703,41 @@
       <c r="F19" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="R19" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="S19" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -3357,7 +4747,7 @@
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3366,17 +4756,41 @@
       <c r="F20" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="R20" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="S20" s="56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -3386,7 +4800,7 @@
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3395,17 +4809,41 @@
       <c r="F21" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="R21" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="S21" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -3415,7 +4853,7 @@
       <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3424,17 +4862,41 @@
       <c r="F22" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="R22" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="S22" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -3444,21 +4906,25 @@
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -3468,21 +4934,25 @@
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -3492,21 +4962,25 @@
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3516,21 +4990,25 @@
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -3540,21 +5018,25 @@
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>198</v>
       </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -3564,21 +5046,25 @@
       <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -3588,19 +5074,23 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -3610,19 +5100,23 @@
       <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
@@ -3632,11 +5126,15 @@
       <c r="E31" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3646,7 +5144,7 @@
       <c r="C32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3655,17 +5153,41 @@
       <c r="F32" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O32" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="R32" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="S32" s="56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3675,7 +5197,7 @@
       <c r="C33" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3684,17 +5206,41 @@
       <c r="F33" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="O33" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="R33" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="S33" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>4</v>
       </c>
@@ -3704,7 +5250,7 @@
       <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3713,17 +5259,41 @@
       <c r="F34" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="O34" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="R34" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="S34" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -3733,7 +5303,7 @@
       <c r="C35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3742,17 +5312,41 @@
       <c r="F35" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L35" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="O35" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="R35" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="S35" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -3762,7 +5356,7 @@
       <c r="C36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3771,17 +5365,41 @@
       <c r="F36" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="O36" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="R36" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="S36" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -3791,7 +5409,7 @@
       <c r="C37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3800,17 +5418,41 @@
       <c r="F37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O37" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="R37" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -3820,7 +5462,7 @@
       <c r="C38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3829,17 +5471,41 @@
       <c r="F38" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="O38" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="R38" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="S38" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3849,21 +5515,25 @@
       <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -3873,21 +5543,25 @@
       <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -3897,21 +5571,25 @@
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -3921,21 +5599,25 @@
       <c r="C42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>4</v>
       </c>
@@ -3945,19 +5627,23 @@
       <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -3967,11 +5653,15 @@
       <c r="E44" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3981,7 +5671,7 @@
       <c r="C45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3990,17 +5680,41 @@
       <c r="F45" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="56"/>
+      <c r="K45" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="O45" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="R45" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="S45" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -4010,7 +5724,7 @@
       <c r="C46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4019,17 +5733,41 @@
       <c r="F46" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G46" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="56"/>
+      <c r="K46" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="R46" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="S46" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -4039,7 +5777,7 @@
       <c r="C47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -4048,17 +5786,41 @@
       <c r="F47" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="56"/>
+      <c r="K47" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="R47" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="S47" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -4068,7 +5830,7 @@
       <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -4077,17 +5839,41 @@
       <c r="F48" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="56"/>
+      <c r="K48" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O48" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="R48" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="S48" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -4097,21 +5883,25 @@
       <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+    </row>
+    <row r="50" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -4121,21 +5911,25 @@
       <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+    </row>
+    <row r="51" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>6</v>
       </c>
@@ -4145,11 +5939,15 @@
       <c r="E51" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+    </row>
+    <row r="52" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>6</v>
       </c>
@@ -4159,7 +5957,7 @@
       <c r="C52" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -4168,17 +5966,41 @@
       <c r="F52" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="56"/>
+      <c r="K52" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="R52" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="S52" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>6</v>
       </c>
@@ -4188,7 +6010,7 @@
       <c r="C53" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -4197,17 +6019,41 @@
       <c r="F53" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="56"/>
+      <c r="K53" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L53" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="O53" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="R53" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="S53" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>6</v>
       </c>
@@ -4217,7 +6063,7 @@
       <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -4226,17 +6072,41 @@
       <c r="F54" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="56"/>
+      <c r="K54" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L54" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O54" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="R54" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="S54" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>6</v>
       </c>
@@ -4246,7 +6116,7 @@
       <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -4255,17 +6125,41 @@
       <c r="F55" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="56"/>
+      <c r="K55" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="R55" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="S55" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -4275,7 +6169,7 @@
       <c r="C56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4284,17 +6178,41 @@
       <c r="F56" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="56"/>
+      <c r="K56" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L56" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="R56" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="S56" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>6</v>
       </c>
@@ -4304,21 +6222,25 @@
       <c r="C57" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+    </row>
+    <row r="58" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -4328,21 +6250,25 @@
       <c r="C58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+    </row>
+    <row r="59" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>6</v>
       </c>
@@ -4352,19 +6278,23 @@
       <c r="C59" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+    </row>
+    <row r="60" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -4374,11 +6304,15 @@
       <c r="E60" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+    </row>
+    <row r="61" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>7</v>
       </c>
@@ -4388,7 +6322,7 @@
       <c r="C61" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -4397,17 +6331,41 @@
       <c r="F61" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="56"/>
+      <c r="K61" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L61" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="R61" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="S61" s="56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -4417,7 +6375,7 @@
       <c r="C62" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -4426,17 +6384,41 @@
       <c r="F62" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="56"/>
+      <c r="K62" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="R62" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="S62" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>7</v>
       </c>
@@ -4446,7 +6428,7 @@
       <c r="C63" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -4455,17 +6437,41 @@
       <c r="F63" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="56"/>
+      <c r="K63" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L63" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O63" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="R63" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="S63" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>7</v>
       </c>
@@ -4475,7 +6481,7 @@
       <c r="C64" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -4484,17 +6490,41 @@
       <c r="F64" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="56"/>
+      <c r="K64" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L64" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="O64" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="R64" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="S64" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -4504,21 +6534,25 @@
       <c r="C65" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+    </row>
+    <row r="66" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>7</v>
       </c>
@@ -4528,21 +6562,25 @@
       <c r="C66" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+    </row>
+    <row r="67" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>7</v>
       </c>
@@ -4552,21 +6590,25 @@
       <c r="C67" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+    </row>
+    <row r="68" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>84</v>
       </c>
@@ -4576,11 +6618,15 @@
       <c r="E68" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+    </row>
+    <row r="69" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>8</v>
       </c>
@@ -4590,7 +6636,7 @@
       <c r="C69" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -4599,17 +6645,41 @@
       <c r="F69" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G69" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="56"/>
+      <c r="K69" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L69" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="O69" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="R69" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="S69" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>8</v>
       </c>
@@ -4619,7 +6689,7 @@
       <c r="C70" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -4628,17 +6698,41 @@
       <c r="F70" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G70" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="56"/>
+      <c r="K70" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L70" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="O70" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="P70" s="58"/>
+      <c r="Q70" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="R70" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="S70" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>8</v>
       </c>
@@ -4648,7 +6742,7 @@
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -4657,17 +6751,41 @@
       <c r="F71" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G71" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="56"/>
+      <c r="K71" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L71" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="O71" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="R71" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="S71" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>8</v>
       </c>
@@ -4677,21 +6795,25 @@
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+    </row>
+    <row r="73" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>8</v>
       </c>
@@ -4701,21 +6823,25 @@
       <c r="C73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="F73" s="4"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+    </row>
+    <row r="74" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -4725,21 +6851,25 @@
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+    </row>
+    <row r="75" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>8</v>
       </c>
@@ -4749,21 +6879,25 @@
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+    </row>
+    <row r="76" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>8</v>
       </c>
@@ -4773,21 +6907,25 @@
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+    </row>
+    <row r="77" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>8</v>
       </c>
@@ -4797,21 +6935,25 @@
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+    </row>
+    <row r="78" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>8</v>
       </c>
@@ -4821,21 +6963,25 @@
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F78" s="4"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+    </row>
+    <row r="79" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>8</v>
       </c>
@@ -4845,21 +6991,25 @@
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+    </row>
+    <row r="80" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>8</v>
       </c>
@@ -4869,19 +7019,23 @@
       <c r="C80" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>98</v>
       </c>
@@ -4891,11 +7045,15 @@
       <c r="E81" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+    </row>
+    <row r="82" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>9</v>
       </c>
@@ -4905,7 +7063,7 @@
       <c r="C82" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -4914,17 +7072,41 @@
       <c r="F82" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G82" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G82" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="56"/>
+      <c r="K82" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L82" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O82" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="R82" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="S82" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>9</v>
       </c>
@@ -4934,7 +7116,7 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -4943,17 +7125,41 @@
       <c r="F83" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="56"/>
+      <c r="K83" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L83" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O83" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="R83" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="S83" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>9</v>
       </c>
@@ -4963,21 +7169,25 @@
       <c r="C84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="F84" s="4"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+    </row>
+    <row r="85" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>9</v>
       </c>
@@ -4987,21 +7197,25 @@
       <c r="C85" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="F85" s="4"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+    </row>
+    <row r="86" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>9</v>
       </c>
@@ -5011,21 +7225,25 @@
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+    </row>
+    <row r="87" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>9</v>
       </c>
@@ -5035,21 +7253,25 @@
       <c r="C87" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+    </row>
+    <row r="88" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>9</v>
       </c>
@@ -5059,19 +7281,23 @@
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+    </row>
+    <row r="89" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>10</v>
       </c>
@@ -5081,11 +7307,15 @@
       <c r="E89" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+    </row>
+    <row r="90" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>10</v>
       </c>
@@ -5095,7 +7325,7 @@
       <c r="C90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -5104,17 +7334,41 @@
       <c r="F90" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G90" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="56"/>
+      <c r="K90" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L90" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="O90" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="P90" s="58"/>
+      <c r="Q90" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="R90" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="S90" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>10</v>
       </c>
@@ -5124,7 +7378,7 @@
       <c r="C91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5133,17 +7387,41 @@
       <c r="F91" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="56"/>
+      <c r="K91" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L91" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O91" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="R91" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="S91" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>10</v>
       </c>
@@ -5153,7 +7431,7 @@
       <c r="C92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5162,17 +7440,41 @@
       <c r="F92" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="56"/>
+      <c r="K92" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L92" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="O92" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="R92" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="S92" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>10</v>
       </c>
@@ -5182,21 +7484,25 @@
       <c r="C93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+    </row>
+    <row r="94" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>10</v>
       </c>
@@ -5206,21 +7512,25 @@
       <c r="C94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+    </row>
+    <row r="95" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>10</v>
       </c>
@@ -5230,21 +7540,25 @@
       <c r="C95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="F95" s="4"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+    </row>
+    <row r="96" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
@@ -5254,21 +7568,25 @@
       <c r="C96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="F96" s="4"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+    </row>
+    <row r="97" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>11</v>
       </c>
@@ -5278,11 +7596,15 @@
       <c r="E97" s="8" t="s">
         <v>117</v>
       </c>
+      <c r="F97" s="4"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+    </row>
+    <row r="98" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>11</v>
       </c>
@@ -5292,7 +7614,7 @@
       <c r="C98" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -5301,17 +7623,41 @@
       <c r="F98" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G98" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="56"/>
+      <c r="K98" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L98" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="O98" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="R98" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="S98" s="56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>11</v>
       </c>
@@ -5321,7 +7667,7 @@
       <c r="C99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -5330,17 +7676,41 @@
       <c r="F99" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G99" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="56"/>
+      <c r="K99" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L99" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="O99" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="P99" s="58"/>
+      <c r="Q99" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="R99" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="S99" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>11</v>
       </c>
@@ -5350,7 +7720,7 @@
       <c r="C100" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -5359,17 +7729,41 @@
       <c r="F100" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G100" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L100" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="O100" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="P100" s="58"/>
+      <c r="Q100" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="R100" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="S100" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>11</v>
       </c>
@@ -5379,7 +7773,7 @@
       <c r="C101" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -5388,17 +7782,41 @@
       <c r="F101" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G101" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="56"/>
+      <c r="K101" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L101" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="O101" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="R101" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="S101" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>11</v>
       </c>
@@ -5408,21 +7826,25 @@
       <c r="C102" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+    </row>
+    <row r="103" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>12</v>
       </c>
@@ -5432,11 +7854,15 @@
       <c r="E103" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+    </row>
+    <row r="104" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>12</v>
       </c>
@@ -5446,7 +7872,7 @@
       <c r="C104" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -5455,17 +7881,41 @@
       <c r="F104" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G104" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="56"/>
+      <c r="K104" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L104" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="O104" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="R104" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="S104" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>12</v>
       </c>
@@ -5475,21 +7925,25 @@
       <c r="C105" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="F105" s="4"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+    </row>
+    <row r="106" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>12</v>
       </c>
@@ -5499,21 +7953,25 @@
       <c r="C106" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H106" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+    </row>
+    <row r="107" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>12</v>
       </c>
@@ -5523,21 +7981,25 @@
       <c r="C107" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="F107" s="4"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+    </row>
+    <row r="108" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>12</v>
       </c>
@@ -5547,21 +8009,25 @@
       <c r="C108" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H108" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+    </row>
+    <row r="109" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>12</v>
       </c>
@@ -5571,21 +8037,25 @@
       <c r="C109" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="F109" s="4"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+    </row>
+    <row r="110" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>12</v>
       </c>
@@ -5595,21 +8065,25 @@
       <c r="C110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="D110" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="F110" s="4"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H110" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+    </row>
+    <row r="111" spans="1:19" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>248</v>
       </c>
@@ -5619,19 +8093,23 @@
       <c r="C111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+    </row>
+    <row r="112" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>132</v>
       </c>
@@ -5641,11 +8119,15 @@
       <c r="E112" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="F112" s="4"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+    </row>
+    <row r="113" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
@@ -5655,21 +8137,25 @@
       <c r="C113" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="F113" s="4"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+    </row>
+    <row r="114" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>132</v>
       </c>
@@ -5679,21 +8165,25 @@
       <c r="C114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="23" t="s">
+      <c r="D114" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="F114" s="4"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+    </row>
+    <row r="115" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>132</v>
       </c>
@@ -5703,21 +8193,25 @@
       <c r="C115" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D115" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+    </row>
+    <row r="116" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>132</v>
       </c>
@@ -5727,21 +8221,25 @@
       <c r="C116" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+    </row>
+    <row r="117" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>132</v>
       </c>
@@ -5751,21 +8249,25 @@
       <c r="C117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+    </row>
+    <row r="118" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>132</v>
       </c>
@@ -5775,21 +8277,25 @@
       <c r="C118" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="D118" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="F118" s="4"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="49"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+    </row>
+    <row r="119" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>132</v>
       </c>
@@ -5799,19 +8305,23 @@
       <c r="C119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+    </row>
+    <row r="120" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>132</v>
       </c>
@@ -5821,19 +8331,23 @@
       <c r="C120" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="23" t="s">
+      <c r="D120" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="49"/>
+    </row>
+    <row r="121" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>132</v>
       </c>
@@ -5843,19 +8357,23 @@
       <c r="C121" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D121" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="49"/>
+      <c r="K121" s="49"/>
+      <c r="L121" s="49"/>
+    </row>
+    <row r="122" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>132</v>
       </c>
@@ -5865,19 +8383,23 @@
       <c r="C122" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" s="49"/>
+      <c r="K122" s="49"/>
+      <c r="L122" s="49"/>
+    </row>
+    <row r="123" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>132</v>
       </c>
@@ -5887,19 +8409,23 @@
       <c r="C123" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="F123" s="4"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="49"/>
+      <c r="K123" s="49"/>
+      <c r="L123" s="49"/>
+    </row>
+    <row r="124" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>14</v>
       </c>
@@ -5909,11 +8435,15 @@
       <c r="E124" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J124" s="50"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="50"/>
+    </row>
+    <row r="125" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>14</v>
       </c>
@@ -5923,7 +8453,7 @@
       <c r="C125" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -5932,17 +8462,41 @@
       <c r="F125" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G125" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G125" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="56"/>
+      <c r="K125" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L125" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="M125" s="56"/>
+      <c r="N125" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="O125" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="P125" s="58"/>
+      <c r="Q125" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="R125" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="S125" s="56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>14</v>
       </c>
@@ -5952,7 +8506,7 @@
       <c r="C126" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -5961,17 +8515,41 @@
       <c r="F126" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G126" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G126" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" s="56"/>
+      <c r="K126" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L126" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="O126" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="P126" s="58"/>
+      <c r="Q126" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="R126" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="S126" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>14</v>
       </c>
@@ -5981,7 +8559,7 @@
       <c r="C127" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -5990,17 +8568,41 @@
       <c r="F127" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G127" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="56"/>
+      <c r="K127" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L127" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="M127" s="56"/>
+      <c r="N127" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="O127" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="P127" s="58"/>
+      <c r="Q127" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="R127" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="S127" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>14</v>
       </c>
@@ -6010,7 +8612,7 @@
       <c r="C128" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -6019,17 +8621,41 @@
       <c r="F128" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G128" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G128" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="56"/>
+      <c r="K128" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L128" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="M128" s="56"/>
+      <c r="N128" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="O128" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="P128" s="58"/>
+      <c r="Q128" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="R128" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="S128" s="56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>14</v>
       </c>
@@ -6039,7 +8665,7 @@
       <c r="C129" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -6048,17 +8674,41 @@
       <c r="F129" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G129" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="G129" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="56"/>
+      <c r="K129" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L129" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="M129" s="56"/>
+      <c r="N129" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="O129" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="P129" s="58"/>
+      <c r="Q129" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="R129" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="S129" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>14</v>
       </c>
@@ -6068,7 +8718,7 @@
       <c r="C130" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -6077,17 +8727,41 @@
       <c r="F130" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G130" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G130" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" s="56"/>
+      <c r="K130" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L130" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="M130" s="56"/>
+      <c r="N130" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="O130" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="P130" s="58"/>
+      <c r="Q130" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="R130" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="S130" s="56" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>14</v>
       </c>
@@ -6097,7 +8771,7 @@
       <c r="C131" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E131" s="10" t="s">
@@ -6106,17 +8780,41 @@
       <c r="F131" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G131" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G131" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" s="56"/>
+      <c r="K131" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L131" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="M131" s="56"/>
+      <c r="N131" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="O131" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="P131" s="58"/>
+      <c r="Q131" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="R131" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="S131" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>14</v>
       </c>
@@ -6126,7 +8824,7 @@
       <c r="C132" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -6135,17 +8833,41 @@
       <c r="F132" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G132" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G132" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" s="56"/>
+      <c r="K132" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L132" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="M132" s="56"/>
+      <c r="N132" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="O132" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="P132" s="58"/>
+      <c r="Q132" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="R132" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="S132" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>14</v>
       </c>
@@ -6155,21 +8877,25 @@
       <c r="C133" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="F133" s="4"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="49"/>
+      <c r="K133" s="49"/>
+      <c r="L133" s="49"/>
+    </row>
+    <row r="134" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>15</v>
       </c>
@@ -6179,11 +8905,15 @@
       <c r="E134" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="F134" s="4"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J134" s="50"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="50"/>
+    </row>
+    <row r="135" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>15</v>
       </c>
@@ -6193,7 +8923,7 @@
       <c r="C135" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -6202,17 +8932,41 @@
       <c r="F135" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G135" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G135" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="56"/>
+      <c r="K135" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="L135" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="M135" s="56"/>
+      <c r="N135" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="O135" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="P135" s="58"/>
+      <c r="Q135" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="R135" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="S135" s="56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>15</v>
       </c>
@@ -6222,21 +8976,25 @@
       <c r="C136" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="F136" s="4"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="49"/>
+      <c r="K136" s="49"/>
+      <c r="L136" s="49"/>
+    </row>
+    <row r="137" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>15</v>
       </c>
@@ -6246,21 +9004,25 @@
       <c r="C137" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="F137" s="4"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" s="49"/>
+      <c r="K137" s="49"/>
+      <c r="L137" s="49"/>
+    </row>
+    <row r="138" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>15</v>
       </c>
@@ -6270,21 +9032,25 @@
       <c r="C138" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="F138" s="4"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="49"/>
+      <c r="K138" s="49"/>
+      <c r="L138" s="49"/>
+    </row>
+    <row r="139" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>15</v>
       </c>
@@ -6294,19 +9060,23 @@
       <c r="C139" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="F139" s="4"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I139" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="49"/>
+      <c r="K139" s="49"/>
+      <c r="L139" s="49"/>
+    </row>
+    <row r="140" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>15</v>
       </c>
@@ -6316,19 +9086,23 @@
       <c r="C140" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="F140" s="4"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I140" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="49"/>
+      <c r="K140" s="49"/>
+      <c r="L140" s="49"/>
+    </row>
+    <row r="141" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>15</v>
       </c>
@@ -6338,19 +9112,23 @@
       <c r="C141" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="F141" s="4"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I141" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="49"/>
+      <c r="K141" s="49"/>
+      <c r="L141" s="49"/>
+    </row>
+    <row r="142" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>162</v>
       </c>
@@ -6360,11 +9138,15 @@
       <c r="E142" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="F142" s="4"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="48"/>
+      <c r="K142" s="48"/>
+      <c r="L142" s="48"/>
+    </row>
+    <row r="143" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>16</v>
       </c>
@@ -6374,21 +9156,25 @@
       <c r="C143" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D143" s="25" t="s">
+      <c r="D143" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="F143" s="4"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="49"/>
+      <c r="K143" s="49"/>
+      <c r="L143" s="49"/>
+    </row>
+    <row r="144" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>16</v>
       </c>
@@ -6398,21 +9184,25 @@
       <c r="C144" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="F144" s="4"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" s="49"/>
+      <c r="K144" s="49"/>
+      <c r="L144" s="49"/>
+    </row>
+    <row r="145" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>16</v>
       </c>
@@ -6422,21 +9212,25 @@
       <c r="C145" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="F145" s="4"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="49"/>
+      <c r="K145" s="49"/>
+      <c r="L145" s="49"/>
+    </row>
+    <row r="146" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>16</v>
       </c>
@@ -6446,21 +9240,25 @@
       <c r="C146" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="F146" s="4"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" s="49"/>
+      <c r="K146" s="49"/>
+      <c r="L146" s="49"/>
+    </row>
+    <row r="147" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>16</v>
       </c>
@@ -6470,21 +9268,25 @@
       <c r="C147" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="F147" s="4"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" s="49"/>
+      <c r="K147" s="49"/>
+      <c r="L147" s="49"/>
+    </row>
+    <row r="148" spans="1:19" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>16</v>
       </c>
@@ -6494,21 +9296,25 @@
       <c r="C148" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="D148" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="F148" s="4"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" s="49"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="49"/>
+    </row>
+    <row r="149" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>16</v>
       </c>
@@ -6518,21 +9324,25 @@
       <c r="C149" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="F149" s="4"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" s="49"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="49"/>
+    </row>
+    <row r="150" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>16</v>
       </c>
@@ -6542,21 +9352,25 @@
       <c r="C150" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="F150" s="4"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" s="49"/>
+      <c r="K150" s="49"/>
+      <c r="L150" s="49"/>
+    </row>
+    <row r="151" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>16</v>
       </c>
@@ -6566,21 +9380,25 @@
       <c r="C151" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="F151" s="4"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" s="49"/>
+      <c r="K151" s="49"/>
+      <c r="L151" s="49"/>
+    </row>
+    <row r="152" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>16</v>
       </c>
@@ -6590,21 +9408,25 @@
       <c r="C152" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="F152" s="4"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H152" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J152" s="49"/>
+      <c r="K152" s="49"/>
+      <c r="L152" s="49"/>
+    </row>
+    <row r="153" spans="1:19" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>16</v>
       </c>
@@ -6614,21 +9436,25 @@
       <c r="C153" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="F153" s="4"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" s="49"/>
+      <c r="K153" s="49"/>
+      <c r="L153" s="49"/>
+    </row>
+    <row r="154" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>16</v>
       </c>
@@ -6638,19 +9464,23 @@
       <c r="C154" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="F154" s="4"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" s="49"/>
+      <c r="K154" s="49"/>
+      <c r="L154" s="49"/>
+    </row>
+    <row r="155" spans="1:19" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>16</v>
       </c>
@@ -6660,19 +9490,23 @@
       <c r="C155" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="F155" s="4"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" s="49"/>
+      <c r="K155" s="49"/>
+      <c r="L155" s="49"/>
+    </row>
+    <row r="156" spans="1:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>16</v>
       </c>
@@ -6682,19 +9516,23 @@
       <c r="C156" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="F156" s="4"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" s="49"/>
+      <c r="K156" s="49"/>
+      <c r="L156" s="49"/>
+    </row>
+    <row r="157" spans="1:19" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>17</v>
       </c>
@@ -6704,11 +9542,15 @@
       <c r="E157" s="8" t="s">
         <v>177</v>
       </c>
+      <c r="F157" s="4"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
-    </row>
-    <row r="158" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="J157" s="48"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
+    </row>
+    <row r="158" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>17</v>
       </c>
@@ -6718,7 +9560,7 @@
       <c r="C158" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E158" s="4" t="s">
@@ -6727,17 +9569,41 @@
       <c r="F158" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G158" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G158" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J158" s="56"/>
+      <c r="K158" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L158" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="O158" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="P158" s="58"/>
+      <c r="Q158" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="R158" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="S158" s="56" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>17</v>
       </c>
@@ -6747,7 +9613,7 @@
       <c r="C159" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E159" s="4" t="s">
@@ -6756,17 +9622,41 @@
       <c r="F159" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G159" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="G159" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J159" s="56"/>
+      <c r="K159" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L159" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="O159" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="P159" s="58"/>
+      <c r="Q159" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="R159" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="S159" s="56" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>17</v>
       </c>
@@ -6776,7 +9666,7 @@
       <c r="C160" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D160" s="25" t="s">
+      <c r="D160" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E160" s="4" t="s">
@@ -6785,17 +9675,41 @@
       <c r="F160" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G160" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G160" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" s="56"/>
+      <c r="K160" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="L160" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="M160" s="56"/>
+      <c r="N160" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="O160" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="P160" s="58"/>
+      <c r="Q160" s="56" t="s">
+        <v>573</v>
+      </c>
+      <c r="R160" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="S160" s="56" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>17</v>
       </c>
@@ -6805,21 +9719,25 @@
       <c r="C161" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D161" s="25" t="s">
+      <c r="D161" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="F161" s="4"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J161" s="49"/>
+      <c r="K161" s="49"/>
+      <c r="L161" s="49"/>
+    </row>
+    <row r="162" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>17</v>
       </c>
@@ -6829,21 +9747,25 @@
       <c r="C162" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="F162" s="4"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J162" s="49"/>
+      <c r="K162" s="49"/>
+      <c r="L162" s="49"/>
+    </row>
+    <row r="163" spans="1:12" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>17</v>
       </c>
@@ -6853,21 +9775,25 @@
       <c r="C163" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="F163" s="4"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J163" s="49"/>
+      <c r="K163" s="49"/>
+      <c r="L163" s="49"/>
+    </row>
+    <row r="164" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>17</v>
       </c>
@@ -6877,21 +9803,25 @@
       <c r="C164" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="F164" s="4"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164" s="49"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="49"/>
+    </row>
+    <row r="165" spans="1:12" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>17</v>
       </c>
@@ -6901,21 +9831,25 @@
       <c r="C165" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="F165" s="4"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J165" s="49"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="49"/>
+    </row>
+    <row r="166" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>17</v>
       </c>
@@ -6925,19 +9859,23 @@
       <c r="C166" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="F166" s="4"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
-      <c r="I166" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J166" s="49"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="49"/>
+    </row>
+    <row r="167" spans="1:12" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>187</v>
       </c>
@@ -6947,11 +9885,15 @@
       <c r="E167" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="F167" s="4"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
-    </row>
-    <row r="168" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="48"/>
+      <c r="K167" s="48"/>
+      <c r="L167" s="48"/>
+    </row>
+    <row r="168" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>18</v>
       </c>
@@ -6961,21 +9903,25 @@
       <c r="C168" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D168" s="25" t="s">
+      <c r="D168" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="F168" s="4"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J168" s="49"/>
+      <c r="K168" s="49"/>
+      <c r="L168" s="49"/>
+    </row>
+    <row r="169" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>18</v>
       </c>
@@ -6985,21 +9931,25 @@
       <c r="C169" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="F169" s="4"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J169" s="49"/>
+      <c r="K169" s="49"/>
+      <c r="L169" s="49"/>
+    </row>
+    <row r="170" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>18</v>
       </c>
@@ -7009,21 +9959,25 @@
       <c r="C170" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="F170" s="4"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J170" s="49"/>
+      <c r="K170" s="49"/>
+      <c r="L170" s="49"/>
+    </row>
+    <row r="171" spans="1:12" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>18</v>
       </c>
@@ -7033,42 +9987,50 @@
       <c r="C171" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="F171" s="4"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+      <c r="I171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J171" s="49"/>
+      <c r="K171" s="49"/>
+      <c r="L171" s="49"/>
+    </row>
+    <row r="172" spans="1:12" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="59">
         <v>18</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="59">
         <v>18.5</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="F172" s="60"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" s="49"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I172">
+  <autoFilter ref="A1:S172">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7076,160 +10038,201 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D3:D7 D9:D15 D58 D77 D95 D108 D113">
-    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="52" priority="69" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="62" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="51" priority="70" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="64" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="49" priority="72" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="48" priority="73" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D30 D52:D59 D69:D80 D82:D88 D90:D96 D104:D111 D113:D123 D125:D133 D135:D141">
-    <cfRule type="containsText" dxfId="39" priority="67" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="68" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="46" priority="76" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="45" priority="77" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="70" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="44" priority="78" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D43">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="40" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D50">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D59 D69:D80 D90:D96 D104:D111 D113:D123 D17:D30 D82:D88 D125:D133 D135:D141">
-    <cfRule type="containsText" dxfId="25" priority="66" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="33" priority="74" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D67">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="31" priority="40" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="34" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="28" priority="43" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D102">
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="30" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="23" priority="38" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143:D156">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D166">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168:D172">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Protect">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="Protect">
       <formula>NOT(ISERROR(SEARCH("Protect",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Respond">
+    <cfRule type="containsText" dxfId="11" priority="20" operator="containsText" text="Respond">
       <formula>NOT(ISERROR(SEARCH("Respond",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="Detect">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Detect">
       <formula>NOT(ISERROR(SEARCH("Detect",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="Identify">
+    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Identify">
       <formula>NOT(ISERROR(SEARCH("Identify",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="Identity">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="Identity">
       <formula>NOT(ISERROR(SEARCH("Identity",D168)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Anahit (Project Manager)">
+      <formula>NOT(ISERROR(SEARCH("Anahit (Project Manager)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Anahit (Project Manager)">
+      <formula>NOT(ISERROR(SEARCH("Anahit (Project Manager)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Karine (Security Operations Lead)">
+      <formula>NOT(ISERROR(SEARCH("Karine (Security Operations Lead)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Harut (Network &amp; Data Protection Engineer)">
+      <formula>NOT(ISERROR(SEARCH("Harut (Network &amp; Data Protection Engineer)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Yelena (IR Lead &amp; Documentation Officer)">
+      <formula>NOT(ISERROR(SEARCH("Yelena (IR Lead &amp; Documentation Officer)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Garegin (Identity &amp; SaaS Engineer)">
+      <formula>NOT(ISERROR(SEARCH("Garegin (Identity &amp; SaaS Engineer)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Nerses (Lead Architect)">
+      <formula>NOT(ISERROR(SEARCH("Nerses (Lead Architect)",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Nerses(Lead Architect)">
+      <formula>NOT(ISERROR(SEARCH("Nerses(Lead Architect)",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations xWindow="692" yWindow="323" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"Identify, Protect, Detect, Respond, Recover"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"Nerses(Lead Architect), Garegin(Identity &amp; SaaS Engineer), Yelena(IR Lead &amp; Documentation Officer),Karine(Security Operations Lead),Anahit(Project Manager),Harut(Network &amp; Data Protection Engineer)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"Implemented, In Progress, Planned"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
+      <formula1>45960</formula1>
+      <formula2>62458</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -7239,6 +10242,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89">E3DAVTDFHYNF-637807545-15693</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89">
+      <Url>https://centerforinternetsecurity.sharepoint.com/sites/CISDocumentLibrary/_layouts/15/DocIdRedir.aspx?ID=E3DAVTDFHYNF-637807545-15693</Url>
+      <Description>E3DAVTDFHYNF-637807545-15693</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="51a3a8b5-de16-4ecc-9fc4-a87a912b3b98">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA87EB49C0C5904AB7E59BB883B4DB66" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4bbb780854b448c97f07a89f97d3debe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ca8c3bf-6909-4544-ae00-cda6071a0e89" xmlns:ns3="51a3a8b5-de16-4ecc-9fc4-a87a912b3b98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a24d78350f64bca0ef502d5adc4ac1e" ns2:_="" ns3:_="">
     <xsd:import namespace="1ca8c3bf-6909-4544-ae00-cda6071a0e89"/>
@@ -7464,31 +10492,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89">E3DAVTDFHYNF-637807545-15693</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89">
-      <Url>https://centerforinternetsecurity.sharepoint.com/sites/CISDocumentLibrary/_layouts/15/DocIdRedir.aspx?ID=E3DAVTDFHYNF-637807545-15693</Url>
-      <Description>E3DAVTDFHYNF-637807545-15693</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="51a3a8b5-de16-4ecc-9fc4-a87a912b3b98">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ca8c3bf-6909-4544-ae00-cda6071a0e89" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -7540,21 +10543,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE83621D-1D6B-4689-9AEF-7BDD990DA609}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543A95B5-76AD-47FA-B2A7-75514BE7C140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="1ca8c3bf-6909-4544-ae00-cda6071a0e89"/>
-    <ds:schemaRef ds:uri="51a3a8b5-de16-4ecc-9fc4-a87a912b3b98"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7577,9 +10568,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543A95B5-76AD-47FA-B2A7-75514BE7C140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE83621D-1D6B-4689-9AEF-7BDD990DA609}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="1ca8c3bf-6909-4544-ae00-cda6071a0e89"/>
+    <ds:schemaRef ds:uri="51a3a8b5-de16-4ecc-9fc4-a87a912b3b98"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
